--- a/PycharmProjects/project/데이터수집기/navernews.xlsx
+++ b/PycharmProjects/project/데이터수집기/navernews.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:C401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,10 +424,15 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>검색어</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>제목</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>언론사</t>
         </is>
@@ -436,1200 +441,6800 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>프랑스적 매력 한껏 발산…동성애 로맨틱 코미디</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>미주중앙일보</t>
+          <t>아시안게임 '배틀그라운드 모바일' 태극전사 5인 가린다</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>뉴시스</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>‘XX+XY’ 인터섹스 안현호, 女2차 성징에 당황... “남VS여 중 선택해야”</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TV리포트</t>
+          <t>‘서던 록 전설’ ZZ Top(지지탑) 저작권 매각, 600억대 추정</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>스포츠경향</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[심봉석 교수의 전지적 비뇨기과시점] 섹스에는 정해진 공식이 없다</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>헬스경향</t>
+          <t>'록 외길 50년' ZZ Top도 저작권 매각…600억 원대 계약 추정</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>연합뉴스</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[column] [다시 만난 그녀들] 참을 수 없는 존재의 가벼움 ‘테레자’</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>여성동아</t>
+          <t>SBA, 제페토서 안전한 온라인 문화 조성을 위한 ‘Z킬건 Z키자, ZZ캠페인’ 실...</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>디스이즈게임</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[e영화] 자크 오디아르×셀린 시아마, 파리의 '섹스 앤 더 시티'</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>이뉴스투데이</t>
+          <t>크래프톤 배그모바일, PMPS 2022 스프링 시즌1 종료</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ZDNet Korea</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>코로나 팬데믹으로 바뀐 성 행동</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>코메디닷컴</t>
+          <t>미국 록 밴드 ZZ탑 베이시스트 더스티 힐 별세</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>이데일리</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>“핵 다운! 섹스 업!” 포르노 스타 국회의원의 반전 메시지</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>한겨레</t>
+          <t>Dusty Hill, Long-Bearded Bassist for ZZ Top, Dies at 72</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>The New York Times</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>루터와 칼뱅: 누구를 위한 종교혁명이었나</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>슬로우뉴스</t>
+          <t>[콘텐츠 핫&amp;뉴] 그라비티 ‘라그나로크 택틱스’, 베트남 지역 출시</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>매일경제</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>섹스 로봇에 푹 빠진 머스크 "사람이 원하는 뭐든 가능"</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>뉴스1</t>
+          <t>America, Unmasked</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>The New York Times</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>결국 '단식 23일차'라니... 더 이상 미루지 마십시오</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>오마이뉴스</t>
+          <t>Many young French voters are approaching the presidential runoff with a ...</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>이코노타임즈</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022년 5월 천칭자리 별자리 운세 / 애정운부터 금전운, 섹스운까지 잘맞기로...</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>allure</t>
+          <t>티켓팜&amp;ZZ TALK, KT와 '안드로이드 기반 단말기 시장' MOU...소상공인 지원 목...</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>열린뉴스통신</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>여성의 성욕을 당당히 말할 수 있어야 [배정원의 핫한 시대]</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>시사저널</t>
+          <t>티켓팜&amp;ZZ TALK 과 KT가 소상공인 지원 위한 안드로이드 기반 단말기 시장 계...</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>잡포스트</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022년 5월 전갈자리 별자리 운세 / 애정운부터 금전운, 섹스운까지 잘맞기로...</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>allure</t>
+          <t>Spring Wildfires</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>AP연합뉴스</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2022년 5월 사자자리 별자리 운세 / 애정운부터 금전운, 섹스운까지 잘맞기로...</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>allure</t>
+          <t>월드제트톡코리아의 SNS 플랫폼 'ZZ TALK', '앨리스' 제작지원 중</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>충청일보</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>일론 머스크 "테슬라가 '섹스파트너 로봇' 만들 수 있을 것"</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>인사이트</t>
+          <t>케이티(KT)⋅매신저 앱 'ZZ TALK', 업무협약 체결</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>조선비즈</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[오동진의 언제나, 영화처럼] 술과 섹스가 사라진 홍상수 월드</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>경기신문</t>
+          <t>[SR경제&amp;라이프] 글로벌 메신저앱 'ZZ TALK' 월드제트톡코리아 업계최초 T3등...</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>SR타임스</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>'레드 로켓'에서 '야생성' 혹은 '야만성'을 처리하는 방법</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>씨네21</t>
+          <t>KT와 글로벌 매신저 앱 '지지톡'(ZZ TALK)', 금융·결제·광고·쇼핑 멀티서비...</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>여성조선</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>역사적 아틀리에 세 곳에서 ‘몸’이란</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>VOGUE</t>
+          <t>비트하오(BHAO), 월드ZZ톡과 전략적 파트너십 체결하며 프로젝트 진행</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>데일리안</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>[이경희의 SF를 좋아해] 소셜 미디어를 떠도는 한국 SF소설 3대 폭탄 버튼</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>씨네21</t>
+          <t>[카트 올스타] 쿨쿨..Zz, 이재혁, 김승태 독주 통해 카트 올스타전 우승</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>인벤</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>낫토, 마파두부, 라멘 그리고 섹스</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>미주중앙일보</t>
+          <t>[카트 올스타] 원투, 원투! 두 번의 1-2위 달성한 '뉴배박', '쿨쿨...Zz'와 결...</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>인벤</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2022년 5월 쌍둥이 별자리 운세 / 애정운부터 금전운, 섹스운까지 잘맞기로 유...</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>allure</t>
+          <t>[카트 올스타] 역시는 역시... 쿨쿨 ..Zz의 이재혁과 김승태, 승자전으로</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>인벤</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>왜 남자는 여자에게 거짓말을 하는가?</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>브레이크뉴스</t>
+          <t>[게임 weekly] 크래프톤 'PMPS 2022 스프링' 성황리 마무리 외</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>우먼타임스</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2022년 5월 황소자리 별자리 운세 / 애정운부터 금전운, 섹스운까지 잘맞기로...</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>allure</t>
+          <t>Black Twitter Is Not a Place. It’s a Practice.</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>The New York Times</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>[김준철의 와인이야기] 와인과 여자와 노래</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>소믈리에타임즈</t>
+          <t>차세대 슈퍼 메신저 ZZ talk 전격출시</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>CCTV뉴스</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>하고 있습니까?</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>VOGUE</t>
+          <t>[김형원의 오덕이야기] (71) Z건담 대비 반쪽 인기 '기동전사 건담ZZ'</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>IT조선</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>[리뷰 스트리밍] '히야마 켄타로의 임신' 외</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>씨네21</t>
+          <t>'싱글맘' 이지현, 새 식구 생겼네…"둘도 버겁지만 더 노력할게"</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>엑스포츠뉴스</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>[육퇴한 밤] 화끈하게 노는 초등 아들, 공부도 잘하는 진짜 이유</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>한겨레</t>
+          <t>서동현, 릴타치에 '고등래퍼' 강현준으로 디스 "릴타치의 ZZ"(쇼미8)</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>싱글리스트</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>[신간] 사랑의 기술-도서출판 행복에너지</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>불교공뉴스</t>
+          <t>위대한 하드록 아티스트 Scorpions, Janis Joplin, ZZ Top | [阿Q의 ‘비밥바...</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>월간조선</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>[Opinion] 쾌락을 당당히 즐겨보자고 [문화 전반]</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>아트인사이트</t>
+          <t>김보겸, "올만zz ㅂㅇㄹ. 얘들아..." 근황공개 눈길</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>한국스포츠통신</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>8. 불교의 성(性)과 인간의 성(性)-상</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>법보신문</t>
+          <t>'올만zz ㅂㅇㄹ. 얘들아...' 지난 8일 김보겸의 인스타그램이 화제</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>한국스포츠통신</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5세 어린이가 보는 공연에 누드와 성행위?</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>데일리굿뉴스</t>
+          <t>뷰티업계, BB·CC크림 넘어 DD·AA·ZZ크림까지</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>매일일보</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>파리의 소외된 아시안, 거침없는 욕망의 질주</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>미주중앙일보</t>
+          <t>‘SD건담 넥스트 에볼루션’, S랭크 ‘풀아머 ZZ건담’ 등장</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>매일경제</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>“국경 넘는 순간 인간 아닌 짐승” 탈북여성 인신매매 실태</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>스카이데일리</t>
+          <t>[SD건담 GGENERATION FRONTIER] Z건담부터 ZZ건담 까지 한 시대를 풍미한 그녀...</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>인벤</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>한국 사회의 권력과 호칭</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>기호일보</t>
+          <t>[하드록통신] 지지탑(ZZ TOP), 결성 50주년 기념 투어 돌입</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>스포츠한국</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Hello, Sunshine</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>메종</t>
+          <t>라벨영, 진정한 화장빨 종결자 '쇼킹ZZ선베이스' 출시</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>충청일보</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>'파리, 13구' 자크 오디아르 감독 "사랑이 필요한 곳"</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>씨네21</t>
+          <t>라벨영, 완벽 멀티 올인원 베이스 메이크업 ‘쇼킹ZZ크림’ 출시</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>국민일보</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>가죽염색도 배운 에르메스 6대손…은행 관두고 '위기의 家業' 지키다</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>한국경제</t>
+          <t>뇌졸중·치매 타깃한 APC 변이 신약 후보물질 행보 '주목'</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>e의료정보</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>[옷장 꽉 찬 쪽박 할머니 탈출 프로젝트①] '섹스 앤 더 시티' 2.0을 꿈꾼 ‘...</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>허프포스트코리아</t>
+          <t>반다이, '강화형 ZZ건담' 액션피규어 출시</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>IT조선</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>[Opinion] 그래도, '섹스 앤더 시티' [드라마/예능]</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>아트인사이트</t>
+          <t>SD건담 캡슐파이터, 풀아머 ZZ건담 추가</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>디스이즈게임</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>윤석열의 차등 최저임금제 2(完): 일본 지방의 싱글맘은 왜 음지로 가는가</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>딴지일보</t>
+          <t>'SD건담캡슐파이터', 'ZZ건담' 포함된 우주전 part2 추가</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>동아일보</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>'장미의 전쟁' 섹스 중독 남편 충격 실화..아내 이혼 요구에 총 겨눴다</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>스타뉴스</t>
+          <t>BASKETBALL FIBA EUROPE CUP</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>EPA연합뉴스</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>류근 시인, 또 ‘막말’ 논란…尹-연산군 빗대며 “중종반정 두 달 후 죽어”</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>디지털타임스</t>
+          <t>SD건담 배틀스테이션, 7일만 접속하면 ZZ건담에서 베앗가이3까지</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>매일경제</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>'장미의 전쟁' 섹스 중독 남편…이혼 요구하는 아내 머리에 총 겨눠</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>텐아시아</t>
+          <t>SPAIN MUSIC ZZ TOP</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>EPA연합뉴스</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>이엘 “남자랑 섹스 아닌 대화를 하고 싶어” (나의 해방일지)</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>MBC연예</t>
+          <t>GERMANY MUSIC ZZ TOP IN CONCERT</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>EPA연합뉴스</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>음주 후 섹스의 리스크</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>GQ</t>
+          <t>FYROM MUSIC ZZ TOP PERFORM</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>EPA연합뉴스</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>[할리우드 통신] ‘섹스 앤드 더 시티’ 의상디자이너 몰리 로저스</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>주간조선</t>
+          <t>SWITZERLAND MUSIC ZZ TOP</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>EPA연합뉴스</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>"하루에 X번 '섹스 다이어트'로 몸매 유지" 美여성 인플루언서 화제</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>뉴스1</t>
+          <t>‘연예가중계’ 설현, 완벽한 비율의 몸매 과시…"SKT Goodnight zZ"</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>세계일보</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>[오동진의 언제나, 영화처럼] 인민을 위해 섹스하라</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>경기신문</t>
+          <t>SWITZERLAND MUSIC ZZ TOP</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>EPA연합뉴스</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>'애널섹스용 표기' 글로벌프로텍션 콘돔, FDA 판매허가</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>더구루</t>
+          <t>영국 화장품 시장 진출 시 고려할 사항</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>KOTRA해외시장뉴스</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>'청소년 인기 메타버스 플랫폼' 로블록스, 나치수용소·섹스룸 등장하며 논란</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>더구루</t>
+          <t>The Fiddle Leaf Fig Is Dead</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>The New York Times</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>[아담과 이브사이] 부부가 섹스하기 좋은 7가지 상황</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>건강다이제스트</t>
+          <t>송은이 "유재석 별명 'ZZ(찌질이)' 였다" 폭로..나경은 '민망'</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>OSEN</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>섹스 중독男, 친구 죽이고 아내 머리에는 총까지 겨눠 '충격'('장미의 전쟁')...</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>OSEN</t>
+          <t>PORTUGAL ZZ TOP</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>EPA연합뉴스</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>"돈 있어도 못 산다"…'최고 명품' 등극한 에르메스 가문의 비결은</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>한국경제</t>
+          <t>“여보세요, 누군가 집안에” 옷장 위칸에 흑곰 한 마리 ZZ</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>서울신문</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>'섹스앤더시티' 캐리가 벌써 57세 생일.."늙었다" 지적엔 "어쩌라고" [Oh!lly...</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>OSEN</t>
+          <t>커져가는 미국 풍력터빈 시장 동향</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>KOTRA해외시장뉴스</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>영국 상류층 '섹스 스캔들' 다룬 넷플릭스 '브리저튼 2' 오늘 공개</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>인사이트</t>
+          <t>효민, 11자 다리밖에 안 보여…슬리퍼 신어도 젓가락 각선미</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>마이데일리</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>美 대학에서 가르치는 게 '섹스위크'?</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>데일리굿뉴스</t>
+          <t>티아라 효민, 극세사 각선미에 ‘깜짝’…잠옷 차림에도 예쁨 폭발[똑똑SNS]</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>MK스포츠</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>[column] ‘섹스 앤 더 시티’의 그녀들이 사랑한 명품 운동 기구 펠러톤의 매...</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>여성동아</t>
+          <t>효민, 하의실종 잠옷 입고 호텔 돌아다니네..부끄럼NO 각선미 자랑</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>헤럴드POP</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>'섹스앤더시티' 사라 제시카 파커 "캐리가 든 버킨백 '배가림용' 짝퉁이었다"...</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>스포츠서울</t>
+          <t>Yandex 체인 서비스</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>KOTRA해외시장뉴스</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>'이런 증상' 보인다면 섹스 중독 가능성…</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>헬스조선</t>
+          <t>'라디오스타' 김준호'낙인', 개그+가창력 동시 선사 "지워ZZ 않는 상처"</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>티브이데일리</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>"남성 몸 품평에...." 호주 남성이 20년 전 '섹스앤더시티'에서 포경에 관한 ...</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>허프포스트코리아</t>
+          <t>브라질 외국인투자유치(FDI) 동향</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>KOTRA해외시장뉴스</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>[SR문화] "네가 아닌 그 사람과 하고 싶어"…'뉴욕 섹스, 파리 러브', 3월 개...</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>SR타임스</t>
+          <t>[조성진의 기타신공] ‘지지탑’ 더스티 힐…기본에 충실, 넘실대는 록 그루브...</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>스포츠한국</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>"우리가 그리는 것은 '섹스(Sex)'가 아니라 '욕망(Desire)'이다 "</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>뉴스프리존</t>
+          <t>(FILE) USA MUSIC DUSTY HILL OBIT</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>EPA연합뉴스</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>우주 섹스 최악이라는 말에 '무중력 성관계' 연구한다 밝힌 NASA</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>인사이트</t>
+          <t>코로나로 인해 안타깝고 씁쓸한 장애인 현실</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>에이블뉴스</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>초월적 남자, 영적 여자: 뇌와 골반, 섹스와 출산 그리고 철분</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>슬로우뉴스</t>
+          <t>What’s on TV This Week: A Bee Gees Documentary and ‘Couples Therapy’</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>The New York Times</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>[리뷰] '인민을 위해 복무하라!' 섹스 심볼이 된 공허한 외침</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>스타뉴스</t>
+          <t>[손바닥문학상 가작 수상작] 양손은 무겁게, 마음은 가볍게</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>한겨레21</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>[정덕현의 엔터인사이드] 섹스어필과 연애 과몰입 사이 '솔로 지옥'</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>매일신문</t>
+          <t>중국 소비자 직접 공략하는 국경 간 전자상거래 유망</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>KOTRA해외시장뉴스</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>[주말에 몰아보기] '금붕어 아내', 어른들을 위한 19금 日 '부부의 세계'</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>아이즈 ize</t>
+          <t>2020년 중국 소비 트렌드, 2021년에도 이어질까?</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>KOTRA해외시장뉴스</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>[오동진의 언제나, 영화처럼] 자동차와 섹스하는 여자의 이야기, 새 세상을 꿈...</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>경기신문</t>
+          <t>[수요동물원] 코로나 검사법으로 성감별받은 블랙스완 7남매</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>조선일보</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>'구찌' 레이디 가가 "셀마 헤이엑과 섹스신有, 영화서 잘렸다" [Oh!llywood]</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>OSEN</t>
+          <t>지지토크 ‘앨리스’ 제작 지원…국내외 사용자 확보 ‘기대’</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>뉴스엔</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>'성폭행 의혹' 크리스 노스, '섹스 앤 더 시티' 시퀄 시리즈 하차</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>싱글리스트</t>
+          <t>PS4 '기동전사 건담 배틀 오퍼레이션 2’ '배틀 오퍼레이션 겨울 축제 2020' ...</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>게임조선</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>'섹스' 때문에 불쾌했던 영화... 묵은 오해를 풀었다</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>오마이뉴스</t>
+          <t>에이넥스코리아, 비트하오재단과 전략적 업무 협약 체결</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>비욘드포스트</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>섹스 로봇은 '진짜 여자'가 무서운 남자들에게나 필요하다 [젠더살롱]</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>한국일보</t>
+          <t>[글로벌 블록체인] 12월 2일 오전 뉴스 브리핑</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>뉴스핌</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>"17년만에 캐리" '권상우♥' 손태영 美 뉴욕서 '섹스 앤 더 시티 리부트' 촬영...</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>스포츠조선</t>
+          <t>‘데뷔 6주년’ 러블리즈, “믿기지 않아..오랫동안 사랑받는 그룹될 것”</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>브레이크뉴스</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>‘섹스 앤 더 시티’ 여성 배우 3인, 성폭행 의혹 크리스 노스 ‘손절’</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>레이디경향</t>
+          <t>팍스넷, 암호화폐 사업 역량 강화</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>팍스넷뉴스</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>[이승훈 작가의 음담사설] ‘섹스 피스톨즈’가 ‘멸공의 횃불’을 부른다면?</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>스포츠월드</t>
+          <t>류수정 "'Tiger Eyes', 저만의 음악에서 시작된 앨범이길 바라죠" [인터뷰]</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>셀럽미디어</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>[이경복의 아침생각]...성교(섹스)가 스포츠?</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>비욘드포스트</t>
+          <t>에이치아이티 &amp; 월드제트톡코리아, 팍스넷과 암호화페사업 진행</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>시사뉴스</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>"피해자 여성들 지지한다" 섹스앤더시티의 '미스터빅' 역 크리스 노스의 '성폭...</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>허프포스트코리아</t>
+          <t>'음악중심' 류수정, '타이거 아이즈' 무대 선사…‘아리아나 호랑인데’</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>엑스포츠뉴스</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>'섹스 앤 더 시티'에서 미스터 빅 연기했던 크리스 노스에게 성폭행 당했다는...</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>허프포스트코리아</t>
+          <t>"여우 같은 걸"…유키스 출신 알렉산더, '시끄러' 역주행→'만만하니' 파트 재...</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>톱스타뉴스</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>[소설 ‘위대한 알코올중독자’&lt;1&gt;] 스토커</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>데일리안</t>
+          <t>‘뮤직뱅크’ 러블리즈 류수정, 솔로곡 ‘타이거 아이즈’ 완벽 무대</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>스포츠동아</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>"여친보다 키 작은 게 어때서" 마블 스파이더맨 톰 홀랜드가 '키 작은 남성이...</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>허프포스트코리아</t>
+          <t>[인터뷰①] 류수정 "데뷔 6년만의 새 도전, 가능성 보여주고 싶었다"</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>싱글리스트</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>'섹스앤더시티' 나쁜 남자 'Mr. 빅', 알고보니 6·25 참전용사 아들이네</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>중앙일보</t>
+          <t>9 Great Music Documentaries to Stream on Netflix</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>The New York Times</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>"킴 캐트럴 이해할 수 없다" 섹스앤더시티의 미스터빅 역 크리스 노스가 사라...</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>허프포스트코리아</t>
+          <t>반다이남코 엔터테인먼트 '기동전사 건담 익스트림 버서스 맥시 부스트 온' 정...</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>게임포커스</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>'모비우스' 아드리아 아르호나 "남미출신으로 섹스어필하지 않고 지성적 캐릭...</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>MBC연예</t>
+          <t>BNEK, PS4 '기동전사 건담 익스트림 버서스 맥시 부스트 온' 7월 30일 발매</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>PC사랑</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>돌아온 〈섹스 앤 더 시티〉, ‘사만다 사이즈의 구멍’을 메꿀 수 있을까?</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ㅍㅍㅅㅅ</t>
+          <t>PS4 '기동전사 건담 배틀 오퍼레이션 2' 2주년 대감사제 개최</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>인벤</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>섹스앤더시티에 날벼락 맞은 펠로톤…이용자 사망 묘사에 급락</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>연합뉴스</t>
+          <t>유키스 출신 알렉산더, ‘문명특급’ 소환→“뜬금없는 주목 감사해”</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>뉴스엔</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>'섹스 앤 더 시티' 리부트 방송 시작, 인기 캐릭터 사만다는?</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>FT스포츠</t>
+          <t>'기동전사 건담 익스트림 버서스 맥시 부스트 온' 패키지 예약 판매 16일 시작</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>게임조선</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>"숨졌나 살았나" '섹스앤더시티' 새 시즌 하차한 사만다의 거취가 공식 결정됐...</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>허프포스트코리아</t>
+          <t>요넥스, 이용대-안세영 라켓으로 유명한 '아스트록스100'출시</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>스포츠조선</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>"흰머리가 마음에 든다" 섹스앤더시티 '미란다' 신시아 닉슨이 극 중 흰머리로...</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>허프포스트코리아</t>
+          <t>건담 익스트림 버서스 맥시 부스트 온, 콜렉터즈 에디션 및 프리미엄 사운드 ...</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>게임샷</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>[두뇌와 섹스] 3화 소중한 성(性) 바라보기</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>브레인미디어</t>
+          <t>[INTERVIEW] Lovelyz's Su-jeong unveils untapped charisma in 'Tiger Eyes'</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>코리아타임스</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>'전자발찌' JMS 정명석 외국인 상대 성폭행 의혹…"여신도 '스타' 조직 섹스도...</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>노컷뉴스</t>
+          <t>[Herald Interview] Sujeong of Lovelyz takes a leap as a solo musician</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>코리아헤럴드</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>‘섹스 앤 더 시티’ 속 캐리의 뉴욕 아파트 가격, 서울의 반값?</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>일요신문</t>
+          <t>[교육소식] 광주학생교육문화회관, 상반기 진로체험 운영 등</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>뉴시스</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>섹스 후 세탁</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>GQ</t>
+          <t>[광주시교육청 단신] 광주시교육청, '스쿨존은 어린이 교통사고 제로존' 업무...</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>퍼블릭뉴스</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>'섹스 앤 더 시티' 배우 크리스 노스, 성폭행 의혹…"합의된 관계" 반박</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>톱스타뉴스</t>
+          <t>정우x김갑수 '뜨거운 피', 개봉 첫날 전체 박스오피스 1위[공식]</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>OSEN</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>'섹스 앤 더 시티' 미스터 빅, 27세·35세 연하 女 성폭행? "합의된 만남" [T...</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>텐아시아</t>
+          <t>[김영준의 균형] 왜 수컷이 먼저 죽을까</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>한국일보</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>‘섹스 앤 더 시티’ 빅 배역 크리스 노스, 성폭행 의혹 이어져</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>스포츠경향</t>
+          <t>굿바이 abc군..방탄소년단 정국 인스타 아이디 바꾸자 벌어진 일</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>스타뉴스</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>‘섹스 앤드 더 시티’ 유명배우, 두 여성 성폭행 의혹…"합의된 관계" 반박[...</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>마이데일리</t>
+          <t>"맥도날드도 탐냈는데"…방탄소년단 정국, '알파벳+언더바' 인스타 아이디 바...</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>톱스타뉴스</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>여자들의 해방과 욕망을 찾아서: 섹스굿즈에서 한류까지</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>일다</t>
+          <t>[김형원의 오덕이야기] (74)건담 리뉴얼 위해 탄생됐던 '기갑전기 드라고나'</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>IT조선</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>"나 50대야, 흰머리 어쩌라고" 섹스앤더시티 언니들 멋진 버럭</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>중앙일보</t>
+          <t>What Students Are Saying About Ignoring Text Messages, Sharing Their Liv...</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>The New York Times</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>넷플릭스 영화 '돈룩업' 주연 배우 제니퍼 로렌스는 3년간 일을 쉬면서 뭐 했...</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>허프포스트코리아</t>
+          <t>최민식 '이상한 나라의 수학자' 박스오피스 1위, "실관람객 압도적 호평"</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>마이데일리</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>[3인3색 性이야기] 당신의 섹스를 업그레이드할 때</t>
+          <t>zz</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>부산일보</t>
+          <t>곽윤기, 연기 천재로 거듭나다? '이상한 나라의 수학자'와 유쾌한 만남</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>마이데일리</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>SPC삼립, 하이면 냉칼국수 3종 출시</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>뉴스1</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>[사진]LG, '위닝시리즈 하이파이브'</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>OSEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>[KRPL] 승부 예측 뒤집은 팀 이터널, 크크하이 상대로 승리</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>인벤</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>NC '역전승 하이파이브' [MK포토]</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>MK스포츠</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>[어게인TV] '불후의 명곡' 2년만에 관객 만난 장민호X영탁X이찬원..."하이파이...</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>헤럴드POP</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>[포토] 6-3 승리 LG, 짜릿한 하이파이브</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>스포츠조선</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>'구속 반등' 류현진, 하이패스트볼 위력도 달라졌다[류현진 다시보기]</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>스포츠한국</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>[포토] 김민규 '위기 극복 하이파이브'</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>이데일리</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>기업은행, 상반기 IBK창공 '플라이 하이' 데모데이 개최</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>토큰포스트</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>류지현 감독 '김현수와 승리 하이파이브' [MK포토]</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>MK스포츠</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>오태곤 '득점 하이파이브' [MK포토]</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>MK스포츠</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>[포토]박민지 '콤비 캐디와 우승 하이파이브'</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>이데일리</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>저스트비, 커리어하이 ‘RE=LOAD’ 활동 성료</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>스포츠경향</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>양의지 '마티니와 팔뚝 하이파이브' [MK포토]</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>MK스포츠</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>추신수-김민식 '홈런 하이파이브' [MK포토]</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>MK스포츠</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>[KRPL] 승부 예측 뒤집은 팀 이터널, 크크하이 상대로 승리</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>인벤</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>[포토] 서준원 '기분 좋은 승리의 하이파이브'</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>스포츠조선</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>롯데하이마트 "성년의 날 카톡으로 '하이메이드' 선물하세요"</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>뉴스1</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>KIA '10-1 대승 하이파이브' [MK포토]</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>MK스포츠</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>기업은행, 상반기 IBK창공 '플라이 하이' 데모데이 개최</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>토큰포스트</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>[시승기] 쉐보레 타호 하이컨트리, 크기에 놀라고 섬세함에 반했다</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>헤럴드경제</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>윤하, 에픽하이 앙코르 콘서트 전 회차 스페셜 게스트 출격</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>스타뉴스</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>유한준 '마지막 하이파이브' [MK포토]</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>MK스포츠</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>[포토] 박상현 '위기 모면 하이파이브'</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>이데일리</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>롯데하이마트 '하이메이드' 프로모션…MZ세대 접점 확대</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>신아일보</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>[포토] 최형우 '승리의 하이파이브'</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>스포츠조선</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>DKZ, '사랑도둑' 공식 활동 종료..눈부신 '커리어 하이'</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>스타뉴스</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>트레저 마시호 ‘잔뜩 힘 들어간 하이 포즈’[포토엔HD]</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>뉴스엔</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>하이딥, 12일 코스닥시장 상장</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>뉴시스</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>"SON PK골 없이 21골, 미친 활약", UCL 진출+EPL 득점왕 '커리어 하이' 정점</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>스포츠조선</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>[포토] 완봉승 거둔 뷰캐넌 '동료들과 승리의 하이파이브'</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>스포츠서울</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>[사진]무고사 첫 골, 조성환 감독과 하이파이브</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>OSEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>UCL 기적 바랐으나... '커리어 하이' 정우영, 개인과 팀 모두에게 아쉬웠던 최...</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>STN 스포츠</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>'불후의명곡' 영탁, 관객과 2년 만에 하이파이브 "가슴 벅차"</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>시사매거진</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>라이엇 게임즈, '하이 눈 이벤트 패스' 출시…수익금 25%는 MSI 상금으로 환원</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>엑스포츠뉴스</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>정장 손흥민, 번리전 앞두고 홈구장 도착! 카메라와 하이파이브!</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>STN 스포츠</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>승리 하이파이브 하는 김선빈</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>연합뉴스</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>[포토] 이용찬-양의지, 승리의 하이파이브</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>스포츠조선</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>[MSI] 사이공 ‘프로기’ 부이반밍하이 “럼블 스테이지서 우리 앞 가로막는 ...</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>포모스</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>나성범 선취득점 하이파이브</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>연합뉴스</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>[포토] 김영웅 '이글 하이파이브'</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>이데일리</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>[포토] 이상희 '버디 하이파이브'</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>이데일리</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>롯데하이마트, 하이메이드 친환경 전기주전자 출시</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>ZDNet Korea</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>[포토] 최민철 '버디 하이파이브'</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>이데일리</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>승리투수 전승현, 김종국 감독과 하이파이브</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>연합뉴스</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>메트로시티, 하이퀄리티 주얼리 타임피스 컬렉션 공개</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>에너지경제</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>광주시, 광주청년 일드림하이 협약식 개최</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>노컷뉴스</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>김종국 감독 '2연승의 하이파이브'[포토]</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>엑스포츠뉴스</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>박병호, 투런포 날리고 하이파이브</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>연합뉴스</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>하이證 "S-Oil, 탄소감축에 대체재 없어…에너지 수혜주"</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>뉴시스</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>투모로우바이투게더 컴백…선주문 146만장 '커리어하이' 예고</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>매일경제</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>하이투자증권 "한화솔루션, 하반기부터 태양광 이익"</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>뉴시스</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>[포토] NC 7연패 탈출 후 승리의 하이파이브</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>스포츠서울</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>[포토]솔로포 임석진, 호랑이 마스크 쓰고 하이파이브</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>일간스포츠</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>이러다 커리어 하이? 오지환 벌써 7홈런, 30홈런 페이스</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>스포티비뉴스</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>거래소 "하이딥, 12일 코스닥시장 상장"</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>뉴스1</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>유강남 '승리의 하이파이브'[포토]</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>엑스포츠뉴스</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>하이파이브 하는 신성현</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>뉴스1</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>하이투자증권, 조직개편 실시…"WM·디지털 융합"</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>뉴시스</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>킹덤, ‘승천’으로 커리어 하이 이루며 미니 4집 활동 마무리</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>스포츠경향</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>[하이빔]자재 부족에 공급난까지, 차 가격 인상 불가피?</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>오토타임즈</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>[포토] 전소미, '하이 텐션'</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>파이낸셜뉴스</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>[포토] 김동민 '버디 하이파이브'</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>이데일리</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>'스윕' 두산 '3연승 하이파이브' [MK포토]</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>MK스포츠</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>이가영 '콤비 캐디와 행복한 하이파이브'[포토]</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>MHN스포츠</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>[사진]유강남 3점홈런, '하이파이브 줄을 서시오'</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>OSEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>윤하, '에픽하이 2022 앙코르 콘서트' 전 회차 출격</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>컨슈머타임스</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>"CJ프레시웨이, 더할 나위 없는 호실적 흐름 기대"-하이</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>한국경제</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>[특징주] 하이딥, 스팩 합병 상장 첫날 ‘급락’</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>조선비즈</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>소크라테스, 김종국 감독과 하이파이브</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>연합뉴스</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>현대百 목동점, '하이스트리트 이탈리아' 팝업 오픈</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>파이낸셜뉴스</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>송가은 '노승희 캐디와 출발 전 하이파이브'[포토]</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>MHN스포츠</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>환율 1300원은 과도한 상승…과거 위기와 다르다-하이투자증권</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>머니투데이</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>[사진] 반즈와 하이파이브하는 스파크맨</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>OSEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>하이證 "美물가 정점론 탄력받기 어려워…연준 빅스텝 지속 초래"</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>뉴스1</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>하이證 "S-Oil 목표주가 7.1%↑…원유 공급자 우위"</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>뉴스1</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>아이브, 엠카 접수 7관왕…커리어하이ing</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>스포츠경향</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>물음표 가득했던 워니…커리어 하이 시즌+통합우승으로 느낌표</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>뉴스1</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>엘라스트, 미니 3집 'ROAR' 초동 자체 최고 경신 '커리어 하이'</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>스포츠서울</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>하이파이브하는 전희철 감독</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>연합뉴스</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>하이파이브 하는 이주형</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>뉴스1</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>[포토] 동료들과 하이파이브 하는 캡틴 오지환</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>스포츠조선</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>[사진]수베로 감독,'투런포 이진영과 하이파이브'</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>OSEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>[사진] 솔로포 마티니와 강인권 감독 대행의 하이파이브</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>OSEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>[TEN인터뷰] '터키 BTS' 와이하이 "'쟤네 왜 높아?'라는 말 듣는 그룹이 되어...</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>텐아시아</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>음성대화 기반 외국어 학습 '하이로컬', 중기부 팁스 선정</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>머니투데이</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>안영미, 필라테스도 역시 하이텐션…복근 대박이네</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>마이데일리</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>[사진]하주석, '노시환-김인환, 하이파이브'</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>OSEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>탐앤탐스x하이네켄 0.0 '하이, 프레즐' 이벤트 진행</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>머니투데이</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>하이넷, 수소충전소 확대 본격화…광명에 수소·전기 복합충전소 준공</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>동아일보</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>LG '승리의 하이파이브' [MK포토]</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>MK스포츠</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>'최준용의 친화력' 최태원 SK회장과 가슴 하이파이브</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>스포츠한국</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>‘부활 넘어 최전성기’ 벌랜더, 39세에 커리어 하이?</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>스포츠동아</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>하이면 주민자치위원회, 프로그램 개강</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>브레이크뉴스</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>하이투자증권, 국내주식·ETF 적립식 매수 서비스 개시</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>연합뉴스</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>'거침없는 하이키킹' 키섬[포토]</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>스포츠서울</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>커리어 하이 시즌 노리는 SSG '꽃미남 불펜'의 자신감 "나가면 다 삼진" [SC ...</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>스포츠조선</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>초등인강 엘리하이 "초등영어 교과서 출판사 '전종' 맞춤 강의 제공"</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>서울경제</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>이지강 '승리의 하이파이브'[포토]</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>엑스포츠뉴스</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>[유기자의 차이나샵#] 하이센스, 전자책 리더기 스마트폰 'A9' 발표</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>씨넷코리아</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>지방선거 평균 경쟁률 1.8대 1 '최저치'…무투표 당선도 313곳</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>MBN</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>"첫째도 둘째도 건강", 313일 만에 마운드 오른 특급 좌완 기대주의 간절한 소...</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>OSEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>괴산군, 중부내륙철도 '313역사' 명칭 제정</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>뉴스1</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>[박재민 교수의 펀한 기술경영]&lt;313&gt;세상을 다시 정한다는 것</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>전자신문</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>인천 서구, 식품제조업 313곳 위생관리등급평가</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>경인매일</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>삼성 이어 NXP, 오스틴에 둥지 튼다</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>더구루</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>인천시교육청, 2022년 제1회 초졸·중졸·고졸 검정고시 합격자 발표</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>브레이크뉴스</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>지방선거 무투표 당선자 494명...4년 전보다 5배 폭증</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>YTN</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>울산 2147명 신규 확진…사망자 1명 늘어 누적 313명</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>연합뉴스</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>달성·양산 사저에서 만난 퇴임 대통령의 길 | 잊힌 삶, 자연인으로 살아가는...</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>월간조선</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>양당 대결 구도 이어졌나…지선 무투표 당선자 '5배 폭증'</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>메트로신문</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>삼성전자·테슬라 들어오니…美텍사스 투자 인센티브 폐기 추진</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>더구루</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>"2월 초 수준 확산세" 전국 오후 9시 3만8333명 확진</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>매일신문</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>6.1 지방선거 무투표 당선자 494명…20년 만에 최다</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>KBS</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>공천만 받으면 끝? 무투표 당선 급증에 우려 목소리</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>오마이뉴스</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>역대 최저 경쟁률에 494명 무더기 ‘무투표 당선’</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>KBS</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>역대 최저 경쟁률에 494명 무더기 ‘무투표 당선’</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>KBS</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>313번 버스 신설, 창원시 진해구 자은3지구 달린다</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>아시아경제</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>동국제약, 국내 3개사와 '전립선비대증' 복합제 'DKF-313' 개발 추진</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>비즈월드</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>동국제약, 내년 매출 7000억 원 돌파 가능?...전문의약품·헬스케어 고속성장...</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>소비자가 만드는 신문</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>도봉구의회, 제313회 임시회 개회</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>시민일보</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>'미국행' 아이티인 실은 배 전복…11명 사망·38명 구조</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>연합뉴스</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[급등주] 동구바이오제약 3% 상승 'DKF-313 개발사업 합류' </t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>국제뉴스</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>도봉구의회, 제313회 임시회 개회</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>신아일보</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>의정부시의회, 제313회 원포인트 임시회 개회</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>이뉴스투데이</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>푸에르토리코 인근 해상서 미국 향하던 선박 전복… 11명 사망</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>세계일보</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>충남도, 코로나19 확진자 중 313번째~316번째 사망자 발생</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>뉴스티앤티</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>도봉구의회, 제313회 임시회 폐회</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>신아일보</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>화천 코로나 확진자 313명(3411~3723번) 추가 발생</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>강원일보</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>의정부시의회, 제313회 원 포인트 임시회 개회</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>중도일보</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>[육군사관학교] 미래 육군 이끌어갈 313명 생도 ‘위국헌신의 길’로</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>국방일보</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>의정부시의회, 제313회 임시회 개최 및 2022년도 제2회 추가경정예산안 심의</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>브레이크뉴스</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>서초구의회, 제313회 임시회 개최</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>이뉴스투데이</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>대전시, 코로나19 신규 확진자 9,693명 발생...누적 사망자 313 명</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>뉴스티앤티</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>대구·전북 광역의원 3분의2 무투표 당선…선택권 박탈 논란</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>국민일보</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>우국원 '하정우 2인전 ‘두 화가’, 313청담프로젝트</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>문학뉴스</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>[1보] 코로나19 신규확진 9만443명… 위중증 313명·사망 39명</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>브릿지경제</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>신규 확진 9만443명, 전주 比 4만893명↑... 위중증 313명·사망 39명</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Queen</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>[미술소식] 하정우·우국원 313청담스페이스 2인전</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>연합뉴스</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>홍콩 코로나 신규감염 298명·7일째 200명대...총 120만7963명</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>뉴시스</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>'억대 화가' 우국원 vs '천만 배우' 하정우… 313 청담스페이스</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>뉴시스</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>대전 신규확진 나흘 연속 4천명대…중등증 이상 313명</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>연합뉴스</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>서초구의회, 내달 8일까지 제313회 임시회</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>시민일보</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>[속보] 경기 양평 코로나 확진자 313명 발생</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>제주교통복지신문</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>강릉 코로나19 확진자 13명(강릉 6,062~6,074번) 추가 발생…23일 총 313명</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>강원일보</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>교사 313명 '떠돌이 수업'..순회교사제 문제 많다.</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>JIBS</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>신규 확진 9만443명, 10만명대 코앞… 위중증 313명</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>컨슈머타임스</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>[2보] 신규확진 9만443명으로 폭증…위중증 환자 313명</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>연합뉴스</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>‘코로나19’ 신규 확진자 9만443명 ‘10만명 눈앞’…위중증 환자 313명</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>핀포인트뉴스</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>신규확진 9만443명 '10만 턱밑'…위중증 환자 313명</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>전국매일신문</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>코로나19 확진 9만443명… 위중증 313명</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>쿠키뉴스</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>신규 확진 90,443명…9만 명대 첫 진입·위중증은 313명</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>TBS</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>국내 신규발생 9만281명, 위중증 313명… 사망 39명</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>보건뉴스</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>[속보]코로나19 위중증 313명…어제 39명 사망, 치명률 0.46%</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>미디어펜</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>강원도 1754명 확진...원주 423명·춘천 313명</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>뉴스핌</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>한국투자증권, ELW 313종목 신규 상장</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>데이터솜</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>태백 313번 확진자 발생...출장 온 서울 거주자</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>쿠키뉴스</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>전북 닷새째 1천 명대 확진… 익산 416명·전주 313명</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>연합뉴스</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>양구 코로나19 확진자 2명(312~313번) 추가발생</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>강원일보</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>박재동의 손바닥 아트 [313]</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>경기신문</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>'노인·어린이' 보행 교통사고 잦은 1기 신도시</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>경인일보</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>[속보] 화성 코로나 확진자 313명 추가 '카페, 피시방, 학원'등</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>시사매거진</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>서천군, 코로나19 확진자 3명(#313~#315 / 충남 #18443~#18445) 추가 발생</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>뉴스티앤티</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>서울 신규확진 1183명…1주 전보다 313명 줄어</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>뉴시스</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>5월 15일 뉴스와이드 주요뉴스</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>MBN</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>[핫플레이스 313] 남해대교서 '봄 바다와 벚꽃의 향연' 만끽하세요</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>전국매일신문</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>동해시의회, 제313회 제2차 정례회 제7차 예산결산특별위원회</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>위클리오늘</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>믿거나 말거나 재미있는 꿈 해몽 313탄_낙타 [인포그래픽]</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>시선뉴스</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>임실군의회 '제313회 제2차 정례회' 폐회</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>브레이크뉴스</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>[오늘(12일)의 산업·경제분야 주요 일정]</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>핀포인트뉴스</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>뜨거웠던 조훈현ㆍ이창호 사제의 313번째 승부</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>한게임 바둑</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>신흥, 작년 영업익 313% 증가</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>아시아경제</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>동해시의회, 제313회 제2차 정례회 제2차 본회의 개최</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>위클리오늘</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>동해시의회, 제313회 제2차 정례회 제1차 본회의 개회</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>위클리오늘</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>임실군의회, 제313회 2차 정례회 개회…30일간 회기 일정 돌입</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>베타뉴스</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>투표하셨나요?... 열쇠 쥔 20대 여성 313만의 고민</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>오마이뉴스</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>통영시 코로나19 확진자 13명 발생..누적확진자 313명 기록</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>한국정경신문</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>대우건설, 아프리카에 태양광 랜턴 313개 기부</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>건설타임즈</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>울산 넷째주 주간 확진자 313명…역대 최다 셋째주보다 88명 감소</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>뉴스1</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>임실군의회, 제313회 제2차 정례회 개회</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>새전북신문</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>임실군의회, 제313회 제2차 정례회 폐회</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>위키트리</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>동해시의회, 제313회 제2차 정례회 성료</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>브레이크뉴스</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>동해시의회 제313회 제2차 정례회 마무리</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>신아일보</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>[취업 걱정없는 명품학교]〈313〉한국관광고등학교</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>전자신문</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>밀양시, 코로나19 밀양313번~317번 확진자 5명 발생</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>이뉴스투데이</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>[속보]코로나19 위중증 환자 313명…전일 대비 1명 줄어</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>머니투데이</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>[‘코로나19’ 통합뉴스룸 LIVE] 신규 확진 90,443명…위중증 313명</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>KBS</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>경남 66명 확진…창원 요양병원 33명 추가, 누적 313명</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>뉴시스</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>[포토]춘천시의회 운영위원회, 제313회 임시회 의사일정 협의</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>브레이크뉴스</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>동해시의회, 제313회 동해시의회 제2차 정례회 제7차 예산결산특별위원회 개최</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>브레이크뉴스</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>동해시의회, 제313회 동해시의회 제2차 정례회 제6차 예산결산특별위원회 개최</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>브레이크뉴스</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>[속보] 통영시청 301~313번째 확진자 13명 발생 알려</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>아시아에이</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>동해시의회, 제313회 동해시의회 제2차 정례회 제4차 예산결산특별위원회 개최</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>브레이크뉴스</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>동해시의회, 제313회 동해시의회 제2차 정례회 제3차 예산결산특별위원회 개최</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>브레이크뉴스</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>동해시의회, 제313회 제2차 정례회 제2차 예산결산특별위원회</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>위클리오늘</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>제313회 동해시의회 제2차 정례회 제2차 예산결산특별위원회 개최</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>브레이크뉴스</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>공수처 313일만의 굴욕…불법수사 논란에 수사대상으로 전락</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>중앙일보</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>[포토] 동해시의회, 제313회 동해시의회 제2차 정례회 제3차 본회의 개최</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>브레이크뉴스</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>충주서 충북도내 첫 과수화상병 발생</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>중부매일</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>오후 9시까지 2787명 확진…1주 전보다 313명 늘었다</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>머니투데이</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>[B tv abc뉴스]'1기 신도시 특별법'...안양시장 후보 "주민 의견 중요"</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>SK브로드밴드</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>ABC마트 X LG 스탠바이미, 발달장애인 작가 팝업 전시회 개최</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>파이낸셜뉴스</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Richard C. Wald, Leader in Print and Network News, Is Dead at 92</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>The New York Times</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>[유통 이슈] ABC마트 X LG 스탠바이미, 발달장애인 작가 팝업 전시회 개최 外</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>로이슈</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>예술에 투영된 편견 없는 사회</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>레이디경향</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>KT, 중개·운송 서비스 '브로캐리'로 물류시장 디지털화 속도낸다(종합)</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>뉴스1</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>[B tv abc뉴스][선거기획]내용 없는 '1기 신도시 특별법'... 무엇을 담아야 할...</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>SK브로드밴드</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>마린테크노, 'ABC 주스 이너뷰티 콜라겐 젤리스틱' 리뉴얼 출시</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>공감신문</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>[B tv abc뉴스]국민의힘 과천시장 후보 신계용 확정...전·현직 맞대결</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>SK브로드밴드</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>[B tv abc뉴스]리그 4위 FC안양 '상위권을 사수하라'</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>SK브로드밴드</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>[B tv abc뉴스]FC안양, 5경기 무승...안산그리너스, 첫승 또 실패</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>SK브로드밴드</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>The Bachelor Comes to Bushwick</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>The New York Times</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>ABC승무원학원, 5월을 맞아 본격 항공과 입시 면접 준비</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>경상일보</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>[B tv abc뉴스] 민주당 안양시장 후보 최대호 확정...'3선 도전'</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>SK브로드밴드</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>마린테크노, 'ABC 주스 이너뷰티 콜라겐 젤리스틱' 리뉴얼 출시</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>공감신문</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>KT, AI케어 서비스에 ABC 기반 디지털 플랫폼 접목</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>뉴스1</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>ABC마트와 함께 오하운(오늘 하루 운동) 시작해요~</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>머니S</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>나이스abc, '중견기업 위한 구매자금 대출' 100억원 돌파</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>서울경제</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>[B tv abc뉴스][선거기획] '유권자와 함께'…B tv 경기 선거방송</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>SK브로드밴드</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>[송의달의 모닝라이브] 1년 신규 석·박사 10만명 시대와 ‘종이 신문’ 생존...</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>조선일보</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>[B tv abc뉴스] [선거기획1,2] 취업·결혼·육아·주거...청년 '사중고'</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>SK브로드밴드</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>나이스abc, 중견기업 대상 '마이너스 통장' 서비스 인기 폭발</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>매일일보</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>[B tv abc뉴스] 국민의힘 안양시장 후보 김필여 확정...'첫 여성시장 도전'</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>SK브로드밴드</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>초록마을, 유기농 ABC주스 출시…"물은 한방울도 없다"</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>뉴시스</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>[B tv abc뉴스] "또다시 나타난 '대벌레'...선제적 방제 나선다</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>SK브로드밴드</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>KT, 건강관리부터 응급사황 대처까지... 돌봄서비스 ABC 기반으로 혁신</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>전자신문</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>[B tv abc뉴스]민주 김종천 과천시장 출마 선언...재선 도전</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>SK브로드밴드</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>박솔미, 여자 스타들의 최애 음료 ABC주스 레시피 대공개</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>뉴시스</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>[B tv abc뉴스]"모두에게 활력을" 발달장애인과 함께한 음악공연</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>SK브로드밴드</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>주류판매자 ‘인증시험’ 한국어 절실</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>미주한국일보</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>그들만의 리그, 약탈 저널의 세계</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>주간조선</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>ABC마트, '플로깅 챌린지' 우리 아이와 함께 환경보호 실천해요~</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>머니S</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>'편스토랑' 박솔미, ABC 주스 건더기로 핑크 전병 만들기</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>스타뉴스</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>ABC마트, '아트닷컴과 함께 뛰어라' SNS 인증 이벤트</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>아시아경제</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>WP-ABC 여론조사, 미국인 94%가 인플레이션에 대해 우려</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>라디오코리아</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>[B tv abc뉴스]실외 마스크 해제..."어색하고 아직은 불안"</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>SK브로드밴드</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>저성과자 퇴사협상에도 ABC가 있다</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>한국경제</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>ABC마트, 지구의 날 맞아 ‘플로깅 챌린지’ 진행</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>동아일보</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>[B tv abc뉴스]한대희 군포시장, 재선 출마 공식 선언</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>SK브로드밴드</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>《김두일의 브런치》 대필은 했지만, 활용하진 않았다고? (feat. 한동훈)</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>굿모닝충청</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>[B tv abc뉴스]지역화폐 가맹점 등록 의무화...7월부터 본격 시행</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>SK브로드밴드</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>[B tv abc뉴스]안양시장 선거 민주당 2인·국민의힘 3인 경선</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>SK브로드밴드</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>[ABC 2022] 축사하는 윤관석 민주당 의원</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>아시아타임즈</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>脫통신 드라이브 구현모 KT 사장…‘ABC 전략’ 넘어 ‘미디어 밸류체인’ 꿈...</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>매경이코노미</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>[B tv abc뉴스]"과천 무네미골 제척해야" 대통령직 인수위에 진정</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>SK브로드밴드</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>Who Should Be the Next Mayor of Los Angeles?</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>The New York Times</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>[B tv abc뉴스]안양시의회 1회 추경 의결...생활안정자금 지원</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>SK브로드밴드</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>[B tv abc뉴스]군포 4번째 '시니어 카페' 오픈...어르신 바리스타</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>SK브로드밴드</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>[ABC 2022] 김현수 NH금융연구소 위원 "탄소배출 감축 속도 조절 필요"</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>아시아타임즈</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>[ABC 2022] 개회사 하는 조용하 아시아타임즈 회장</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>아시아타임즈</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>[B tv abc뉴스]방치된 '굴다리 공연장'...'아트홀'로 탈바꿈</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>SK브로드밴드</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>[ABC 2022] 토론 좌장 맡은 남주하 서강대 교수</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>아시아타임즈</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>[ABC 2022] '탄소중립 전환과 금융뉴딜 대응전략' 포럼 '이모저모'</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>아시아타임즈</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>[B tv abc뉴스]활짝 핀 군포 철쭉동산...2년만에 개방</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>SK브로드밴드</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>[B tv abc뉴스]군포시 자체 철도망 구축 나선다...용역 착수</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>SK브로드밴드</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>[ABC 2022] 기조강연 나선 이옥수 딜로이트안진 이사</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>아시아타임즈</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>[B tv abc뉴스]과천시장 민주당 단수 공천 vs 국민의힘 '4파전'</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>SK브로드밴드</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>[B tv abc뉴스]의왕시장 경선 '치열'...민주 4명·국힘 2명 경쟁</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>SK브로드밴드</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>[ABC 2022] 특별토론 참석한 이병윤 한국금융연구원 센터장</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>아시아타임즈</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>[ABC 2022] 기조연설하는 조윤남 대신경제연구소 대표이사</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>아시아타임즈</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>[ABC 2022] 윤창현 국민의힘 의원 축사⋯ "ESG는 세계적 추세"</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>아시아타임즈</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>[ABC 2022] 전문인력·상품개발 투자…ESG 확산에 금융 역할 중요</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>아시아타임즈</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>[ABC 2022] "온실가스 감축목표 40% 달성…탈원전 폐기가 맞다"</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>아시아타임즈</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>"불필요한 이메일 삭제부터 플로깅 챌린지까지"</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>프라임경제</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>[ABC 2022] ABC포럼 개최 축하하는 김흥종 대외경제정책연구원장</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>아시아타임즈</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>[ABC 2022] 저탄소 전환 조건은 시간과 비용…정부, 마중물 역할 중요</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>아시아타임즈</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>[ABC 2022] '제3자 참여‧유상할당 확대'…탄소배출권 시장 키워라"</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>아시아타임즈</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>[B tv abc뉴스][선거기획1,2] 경기도내 그린벨트 13% 사라졌다</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>SK브로드밴드</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>[ABC 2022] 조윤남 대표 "기후변화로 금융권 리스크 고조...복원력 제고해야"</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>아시아타임즈</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>'편스토랑' 김가연, 박하나 위한 16종 반찬→박솔미표 핑크 전병 [★밤TView]</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>스타뉴스</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>[ABC 2022] 김흥종 원장 "ESG, 글로벌 공급망·경제안보에도 영향 미칠 것"</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>아시아타임즈</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>[B tv abc뉴스]안양시 1회 추경 1조7,390억 편성...민생경제 지원</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>SK브로드밴드</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>바나나 멸종 위기··· 'K-키트'로 넘는다</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>한국일보</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>ABC 솔루션 세일즈 나선 구현모…"로봇 컨설팅·판매·관리 오랫동안 준비"</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>데일리임팩트</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>‘데이터를 가치로 바꾼다’··· 데이터과학 ABC</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>CIO Korea</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>[ABC 2022] 이옥수 이사 "그린워싱 방지위해 데이터 관리 필수...원전, 환경문...</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>아시아타임즈</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>[B tv abc뉴스]FC안양, 광주FC와 무승부...리그 4위로 밀려</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>SK브로드밴드</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>[B tv abc뉴스]의왕 왕송호수에 수달이 산다...흔적 11곳 발견</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>SK브로드밴드</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>[B tv abc뉴스]K리그2 FC안양 '4위'..."잘 버텨준 선수들 높게 평가"</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>SK브로드밴드</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>[B tv abc뉴스][누가 뛰나]군포시장 선거 민주당 단수 공천·국민의힘 4명 경...</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>SK브로드밴드</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>[ABC 2022] 윤창현 의원 "ESG 대응 제각각…체계적 정책지원 필요"</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>아시아타임즈</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>최철규 "포천 지역정치 활성화는 미디어바우처 활용해야"</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>내외경제tv</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>[ABC 2022] 기후금융모델의 필수조건…ESS·스마트그리드 등 에너지 신기술 투...</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>아시아타임즈</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>시흥시, 노후 건물 리모델링으로 탄소 중립 본격화</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>브레이크뉴스</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>미국 코로나19 사망자 100만명... 고아 25만명</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>여성신문</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>[사고] 탄소중립 사회 전환, 녹색금융의 역할…아시아타임즈 ABC 2022 개최</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>아시아타임즈</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>'패션 보도'는 과연 저널리즘적 가치가 있을까</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>미디어오늘</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>美 마트 총기난사 10명 사망…‘백인우월주의 주장’ 10대 체포</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>서울신문</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>Republican Convention Minnesota</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>AP연합뉴스</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>"현대차, 바이든 방한 때 美 전기차공장 설립 발표…9조원 투자"</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>머니투데이</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>"스타트업 투자, 시너지를 본다" KT의 스타트업 투자전략</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>한국일보</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>"과제는 제게 맡기고 푹 쉬세요" 한동훈 청문회로 주목 받는 '에세이 공장'</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>한국일보</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>폭발한 서울대 교수 “한동훈 딸 문제, 조국 딸 문제보다 10배는 심각” (fea...</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>위키트리</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>"빠른 운송대금 정산" 나이스abc, 물류 매출채권 유동화 사업 확대</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>파이낸셜신문</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>현대차, 美에 전기차 첫 전용공장 이유…테슬라 안방서 정면승부</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>머니투데이</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>봄 슈즈 총집합! ABC마트와 함께 화사한 스타일링 완성~</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>머니S</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>한동훈 장녀, 돈만 내면 실어주는 '약탈적 학술지'에 논문 다수 게재</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>뉴스타파</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>구현모 KT 대표, ‘그룹 ABC 원팀’ 통해 협업·시너지 강화 추진</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>IT조선</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>(종합) 4/6 캐시워크·오퀴즈 정답 모두공개... 위메프 4월 포인트데이/마켓컬...</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>핀포인트뉴스</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>아트닷컴, ABC 프라이빗 브랜드관 오픈</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>패션비즈</t>
         </is>
       </c>
     </row>
